--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1664083.349909019</v>
+        <v>1662195.768392618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>128.0041052504326</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>168.7756050755994</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>337.1647577214389</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>260.8447765395497</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>100.6689360158811</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.525532102719421</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>28.8369915721226</v>
+        <v>166.1848299532901</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>111.2944539985321</v>
+        <v>39.11561436815849</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>106.2501394820172</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>122.5264189150277</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>76.90718818968207</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571506</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.54225047951656</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>336.7060338358128</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.586091536707</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>895.797838938463</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>484.8119341488554</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>470.8885300874463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,43 +5018,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141293</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.73845358094</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531122</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531122</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387938</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766204</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1469.787996242627</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>1215.10350803674</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>1215.10350803674</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>1215.10350803674</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>994.3109288932103</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,46 +5513,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>1097.368991368903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>807.9518213319425</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>579.9622704339251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>352.4535582568378</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>352.4535582568378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>352.4535582568378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>204.5404646744446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>204.5404646744446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>204.5404646744446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>204.5404646744446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W22" t="n">
-        <v>754.8946022306076</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X22" t="n">
-        <v>754.8946022306076</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y22" t="n">
-        <v>534.1020230870774</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,31 +6002,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811264</v>
+        <v>786.082206476519</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441658</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="X28" t="n">
-        <v>237.7764125461485</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y28" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,40 +6449,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215267</v>
+        <v>494.8466681110219</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749898</v>
+        <v>381.6713504644858</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440247</v>
+        <v>287.3155763335208</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430023</v>
+        <v>287.3155763335208</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264625</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323872</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818801</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386951</v>
+        <v>957.9946671386967</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220485</v>
+        <v>785.7659815220502</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215267</v>
+        <v>620.7342676598907</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841096</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103124</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7181,40 +7181,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,25 +7549,25 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,7 +7603,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,40 +7655,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>93.88676507992579</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622801</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>358.3520020925037</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139954</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907249</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013102099</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>297.3877236703349</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256772</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359692</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>189.3952778808838</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>262.225813365323</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>257.4003608264547</v>
+        <v>120.0525224452873</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>140.8431893252959</v>
+        <v>213.0220289556695</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>4.169105982254767</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>163.9965794215633</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.6782523069333</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165204</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.3106032046921</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523586</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.8391462440213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949948.7918249846</v>
+        <v>949948.7918249847</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.87168525</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852502</v>
-      </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143234</v>
+        <v>488186.5648143235</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="M2" t="n">
         <v>492625.0619185703</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284553</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563558</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275958</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106069</v>
+        <v>-336976.8536106066</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039379</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618019</v>
+        <v>-163055.6194877739</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150945</v>
+        <v>362104.4169891221</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150946</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150943</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150945</v>
+        <v>362104.4169891224</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225017</v>
+        <v>185681.1977965295</v>
       </c>
       <c r="K6" t="n">
-        <v>314185.4588456195</v>
+        <v>314166.9651076851</v>
       </c>
       <c r="L6" t="n">
-        <v>347102.5924349182</v>
+        <v>347102.5924349183</v>
       </c>
       <c r="M6" t="n">
-        <v>222644.4840019481</v>
+        <v>222644.484001948</v>
       </c>
       <c r="N6" t="n">
-        <v>357445.4992357849</v>
+        <v>357445.4992357853</v>
       </c>
       <c r="O6" t="n">
-        <v>357445.499235785</v>
+        <v>357445.4992357853</v>
       </c>
       <c r="P6" t="n">
-        <v>313282.8939329396</v>
+        <v>313282.8939329395</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108373</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>285.7800647703624</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>83.36203824822863</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>28.10813404956866</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63.07799622480741</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>254.0141056048019</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>142.1113494150892</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777528</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>668.7763791429701</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551036</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>609.7603912467492</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>318.8310870635683</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>504.4912617279393</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>504.4811386018595</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412246</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043169</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426638</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
